--- a/app/Imports/excel-importation/2025-db-import -prod -2 - rabat-lc.xlsx
+++ b/app/Imports/excel-importation/2025-db-import -prod -2 - rabat-lc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Developpement 2025\grace_back_prod\app\Imports\excel-importation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCEA7AC-A709-4DA8-A87F-4FE2986F1CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558C6C39-DD81-46E8-8107-A448466CDEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>user_id</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>27809/2024</t>
+  </si>
+  <si>
+    <t>15SD536MP</t>
+  </si>
+  <si>
+    <t>SD59969AZ</t>
   </si>
 </sst>
 </file>
@@ -555,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,7 +717,9 @@
       <c r="S2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="4"/>
+      <c r="T2" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="U2" s="3">
         <v>92</v>
       </c>
@@ -780,7 +788,9 @@
       <c r="S3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="4"/>
+      <c r="T3" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="U3" s="3" t="s">
         <v>26</v>
       </c>
